--- a/teaching/traditional_assets/database/data/denmark/denmark_insurance_prop_cas.xlsx
+++ b/teaching/traditional_assets/database/data/denmark/denmark_insurance_prop_cas.xlsx
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0235</v>
+        <v>0.03659999999999999</v>
       </c>
       <c r="E2">
-        <v>0.0552</v>
+        <v>0.04295</v>
       </c>
       <c r="G2">
-        <v>0.1228505922812381</v>
+        <v>0.1468362647840464</v>
       </c>
       <c r="H2">
-        <v>0.1228505922812381</v>
+        <v>0.1468362647840464</v>
       </c>
       <c r="I2">
-        <v>0.08477166605222969</v>
+        <v>0.1655813198628609</v>
       </c>
       <c r="J2">
-        <v>0.06730153452774401</v>
+        <v>0.1264723454239262</v>
       </c>
       <c r="K2">
-        <v>399.7</v>
+        <v>475.9</v>
       </c>
       <c r="L2">
-        <v>0.09545758502101645</v>
+        <v>0.09654514839835272</v>
       </c>
       <c r="M2">
-        <v>207.7</v>
+        <v>341.242</v>
       </c>
       <c r="N2">
-        <v>0.01982248520710059</v>
+        <v>0.02997663305105591</v>
       </c>
       <c r="O2">
-        <v>0.519639729797348</v>
+        <v>0.7170455978146669</v>
       </c>
       <c r="P2">
-        <v>183.3</v>
+        <v>313.742</v>
       </c>
       <c r="Q2">
-        <v>0.01749379652605459</v>
+        <v>0.02756087705119646</v>
       </c>
       <c r="R2">
-        <v>0.4585939454590942</v>
+        <v>0.6592603488127758</v>
       </c>
       <c r="S2">
-        <v>24.40000000000001</v>
+        <v>27.49999999999999</v>
       </c>
       <c r="T2">
-        <v>0.1174771304766491</v>
+        <v>0.08058796982786406</v>
       </c>
       <c r="U2">
-        <v>249.4</v>
+        <v>327</v>
       </c>
       <c r="V2">
-        <v>0.02380225233823249</v>
+        <v>0.02872553498014688</v>
       </c>
       <c r="W2">
-        <v>0.1382106385100397</v>
+        <v>0.1785441822737376</v>
       </c>
       <c r="X2">
-        <v>0.04841654398344071</v>
+        <v>0.04308125810136546</v>
       </c>
       <c r="Y2">
-        <v>0.08979409452659902</v>
+        <v>0.1354629241723722</v>
       </c>
       <c r="Z2">
-        <v>1.30044520514577</v>
+        <v>1.589584005159626</v>
       </c>
       <c r="AA2">
-        <v>0.02710707343583141</v>
+        <v>0.2207215824213049</v>
       </c>
       <c r="AB2">
-        <v>0.04494584197978752</v>
+        <v>0.04008440751776571</v>
       </c>
       <c r="AC2">
-        <v>-0.01783876854395609</v>
+        <v>0.1806371749035393</v>
       </c>
       <c r="AD2">
-        <v>958.2</v>
+        <v>962</v>
       </c>
       <c r="AE2">
-        <v>57.72039953051929</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1015.920399530519</v>
+        <v>962</v>
       </c>
       <c r="AG2">
-        <v>766.5203995305193</v>
+        <v>635</v>
       </c>
       <c r="AH2">
-        <v>0.08838763139268091</v>
+        <v>0.07792249870399172</v>
       </c>
       <c r="AI2">
-        <v>0.2903525326460225</v>
+        <v>0.2542955326460481</v>
       </c>
       <c r="AJ2">
-        <v>0.06816834976461272</v>
+        <v>0.05283477276887492</v>
       </c>
       <c r="AK2">
-        <v>0.2358872403574582</v>
+        <v>0.1837384259259259</v>
       </c>
       <c r="AL2">
-        <v>29.06</v>
+        <v>32.78</v>
       </c>
       <c r="AM2">
-        <v>29.06</v>
+        <v>32.78</v>
       </c>
       <c r="AN2">
-        <v>2.322909090909091</v>
+        <v>1.074260189838079</v>
       </c>
       <c r="AO2">
-        <v>11.44184445973847</v>
+        <v>24.8993288590604</v>
       </c>
       <c r="AP2">
-        <v>1.858231271589138</v>
+        <v>0.7091010608598548</v>
       </c>
       <c r="AQ2">
-        <v>11.44184445973847</v>
+        <v>24.8993288590604</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tryg A/S (CPSE:TRYG)</t>
+          <t>Alm. Brand A/S (CPSE:ALMB)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,121 +725,121 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0231</v>
+        <v>0.0189</v>
       </c>
       <c r="E3">
-        <v>-0.0196</v>
+        <v>0.0295</v>
       </c>
       <c r="G3">
-        <v>0.1215180714966948</v>
+        <v>0.08637023718968261</v>
       </c>
       <c r="H3">
-        <v>0.1215180714966948</v>
+        <v>0.08637023718968261</v>
       </c>
       <c r="I3">
-        <v>0.1452626040056566</v>
+        <v>0.1890602309660466</v>
       </c>
       <c r="J3">
-        <v>0.1152493795236769</v>
+        <v>0.1471726348837488</v>
       </c>
       <c r="K3">
-        <v>328.3</v>
+        <v>91</v>
       </c>
       <c r="L3">
-        <v>0.1079685598710823</v>
+        <v>0.06292787497406818</v>
       </c>
       <c r="M3">
-        <v>153.5</v>
+        <v>86.142</v>
       </c>
       <c r="N3">
-        <v>0.01713341741916041</v>
+        <v>0.04638022936520756</v>
       </c>
       <c r="O3">
-        <v>0.4675601583917149</v>
+        <v>0.9466153846153845</v>
       </c>
       <c r="P3">
-        <v>149.7</v>
+        <v>72.842</v>
       </c>
       <c r="Q3">
-        <v>0.01670926767197598</v>
+        <v>0.03921929682872988</v>
       </c>
       <c r="R3">
-        <v>0.4559853792263173</v>
+        <v>0.8004615384615384</v>
       </c>
       <c r="S3">
-        <v>3.800000000000011</v>
+        <v>13.3</v>
       </c>
       <c r="T3">
-        <v>0.02475570032573297</v>
+        <v>0.1543962294815537</v>
       </c>
       <c r="U3">
-        <v>93</v>
+        <v>222.7</v>
       </c>
       <c r="V3">
-        <v>0.01038050697056624</v>
+        <v>0.1199052387874872</v>
       </c>
       <c r="W3">
-        <v>0.1792519792519792</v>
+        <v>0.1355376824545725</v>
       </c>
       <c r="X3">
-        <v>0.04684249192897993</v>
+        <v>0.04433154243519008</v>
       </c>
       <c r="Y3">
-        <v>0.1324094873229993</v>
+        <v>0.09120614001938246</v>
       </c>
       <c r="Z3">
-        <v>1.243131643499591</v>
+        <v>1.79595131644312</v>
       </c>
       <c r="AA3">
-        <v>0.1432701505795765</v>
+        <v>0.2643148873638714</v>
       </c>
       <c r="AB3">
-        <v>0.04511845700584019</v>
+        <v>0.04003784737526019</v>
       </c>
       <c r="AC3">
-        <v>0.09815169357373635</v>
+        <v>0.2242770399886112</v>
       </c>
       <c r="AD3">
-        <v>668</v>
+        <v>318.2</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>668</v>
+        <v>318.2</v>
       </c>
       <c r="AG3">
-        <v>575</v>
+        <v>95.5</v>
       </c>
       <c r="AH3">
-        <v>0.06938745832078196</v>
+        <v>0.1462652263847391</v>
       </c>
       <c r="AI3">
-        <v>0.2693982900467817</v>
+        <v>0.283423888839405</v>
       </c>
       <c r="AJ3">
-        <v>0.0603098352230415</v>
+        <v>0.04890413764850472</v>
       </c>
       <c r="AK3">
-        <v>0.2409285175563563</v>
+        <v>0.1061111111111111</v>
       </c>
       <c r="AL3">
-        <v>22.2</v>
+        <v>8.68</v>
       </c>
       <c r="AM3">
-        <v>22.2</v>
+        <v>8.68</v>
       </c>
       <c r="AN3">
-        <v>1.478530323151837</v>
+        <v>1.013053167780961</v>
       </c>
       <c r="AO3">
-        <v>19.8963963963964</v>
+        <v>31.49769585253456</v>
       </c>
       <c r="AP3">
-        <v>1.272687029659141</v>
+        <v>0.3040432983126393</v>
       </c>
       <c r="AQ3">
-        <v>19.8963963963964</v>
+        <v>31.49769585253456</v>
       </c>
     </row>
     <row r="4">
@@ -850,7 +850,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alm. Brand A/S (CPSE:ALMB)</t>
+          <t>Tryg A/S (CPSE:TRYG)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -859,121 +859,121 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0239</v>
+        <v>0.05429999999999999</v>
       </c>
       <c r="E4">
-        <v>0.13</v>
+        <v>0.0564</v>
       </c>
       <c r="G4">
-        <v>0.1263846489315308</v>
+        <v>0.1719395957740009</v>
       </c>
       <c r="H4">
-        <v>0.1263846489315308</v>
+        <v>0.1719395957740009</v>
       </c>
       <c r="I4">
-        <v>-0.075659903973924</v>
+        <v>0.1558337161231052</v>
       </c>
       <c r="J4">
-        <v>-0.06010759037928407</v>
+        <v>0.1167464111838791</v>
       </c>
       <c r="K4">
-        <v>71.40000000000001</v>
+        <v>384.9</v>
       </c>
       <c r="L4">
-        <v>0.06227649367640646</v>
+        <v>0.1105018373909049</v>
       </c>
       <c r="M4">
-        <v>54.2</v>
+        <v>255.1</v>
       </c>
       <c r="N4">
-        <v>0.03568371848047929</v>
+        <v>0.02677849742292391</v>
       </c>
       <c r="O4">
-        <v>0.7591036414565826</v>
+        <v>0.6627695505326059</v>
       </c>
       <c r="P4">
-        <v>33.6</v>
+        <v>240.9</v>
       </c>
       <c r="Q4">
-        <v>0.02212127197313846</v>
+        <v>0.02528788721749263</v>
       </c>
       <c r="R4">
-        <v>0.4705882352941176</v>
+        <v>0.6258768511301638</v>
       </c>
       <c r="S4">
-        <v>20.6</v>
+        <v>14.19999999999999</v>
       </c>
       <c r="T4">
-        <v>0.3800738007380074</v>
+        <v>0.05566444531556248</v>
       </c>
       <c r="U4">
-        <v>156.4</v>
+        <v>104.3</v>
       </c>
       <c r="V4">
-        <v>0.1029692540654421</v>
+        <v>0.01094863693144243</v>
       </c>
       <c r="W4">
-        <v>0.09716929776810018</v>
+        <v>0.2215506820929028</v>
       </c>
       <c r="X4">
-        <v>0.04999059603790149</v>
+        <v>0.04183097376754084</v>
       </c>
       <c r="Y4">
-        <v>0.04717870173019869</v>
+        <v>0.1797197083253619</v>
       </c>
       <c r="Z4">
-        <v>1.481609945532048</v>
+        <v>1.517205331474867</v>
       </c>
       <c r="AA4">
-        <v>-0.08905600370791371</v>
+        <v>0.1771282774787385</v>
       </c>
       <c r="AB4">
-        <v>0.04477322695373483</v>
+        <v>0.04013096766027122</v>
       </c>
       <c r="AC4">
-        <v>-0.1338292306616485</v>
+        <v>0.1369973098184673</v>
       </c>
       <c r="AD4">
-        <v>290.2</v>
+        <v>643.8</v>
       </c>
       <c r="AE4">
-        <v>57.72039953051929</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>347.9203995305193</v>
+        <v>643.8</v>
       </c>
       <c r="AG4">
-        <v>191.5203995305193</v>
+        <v>539.5</v>
       </c>
       <c r="AH4">
-        <v>0.1863705794183611</v>
+        <v>0.06330321235779393</v>
       </c>
       <c r="AI4">
-        <v>0.3413258477812915</v>
+        <v>0.2420027816411683</v>
       </c>
       <c r="AJ4">
-        <v>0.1119727054138785</v>
+        <v>0.05359732957142006</v>
       </c>
       <c r="AK4">
-        <v>0.2219444570260686</v>
+        <v>0.2110719874804382</v>
       </c>
       <c r="AL4">
-        <v>6.86</v>
+        <v>24.1</v>
       </c>
       <c r="AM4">
-        <v>6.86</v>
+        <v>24.1</v>
       </c>
       <c r="AN4">
-        <v>-7.384223918575064</v>
+        <v>1.107327141382869</v>
       </c>
       <c r="AO4">
-        <v>-15.91836734693877</v>
+        <v>22.52282157676348</v>
       </c>
       <c r="AP4">
-        <v>-4.873292608919066</v>
+        <v>0.9279325765393878</v>
       </c>
       <c r="AQ4">
-        <v>-15.91836734693877</v>
+        <v>22.52282157676348</v>
       </c>
     </row>
   </sheetData>
